--- a/biology/Botanique/Sansevieria_stuckyi/Sansevieria_stuckyi.xlsx
+++ b/biology/Botanique/Sansevieria_stuckyi/Sansevieria_stuckyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria stuckyi, également appelée Dracaena stuckyi[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria stuckyi, également appelée Dracaena stuckyi, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria stuckyi est une espèce de sansevières à longues feuilles érectiles rigides (120 à 270 cm de longueur et 2,9 à 6,3 cm de largeur à leur base) se courbant avec l'âge, cylindriques, avec un canal marqué (de 0,4 à 0,8 cm de profondeur) et six à vingt sillons longitudinaux, légèrement rugueuses, se terminant en une épine brun-clair (de 0,4 cm), de couleur vert terne à vert-clair avec de discrètes striures plus claires[2]. Acaulescentes, elles poussent directement depuis le rhyzome (de 5 cm de diamètre) par groupe de une à trois feuilles. Les inflorescences (de 20 à 43 cm de longueur) émergent entre les feuilles avec des groupes de une à trois fleurs blanches teintées de pourpre[2].
-Elle a été identifiée comme espèce à part entière en 1903 par l'horticulteur français Alexandre Godefroy-Lebeuf[3], confirmé la même année par le botaniste Joseph Gérôme[4].
-Sansevieria stuckyi peut être confondue avec Sansevieria fischeri – qui présente de fortes similarités morphologiques – mais diffère par le caractère strictement solitaires des feuilles et l'émergence latérale des infloresences qui sont par ailleurs plus volumineuses sur leur long pédoncule[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria stuckyi est une espèce de sansevières à longues feuilles érectiles rigides (120 à 270 cm de longueur et 2,9 à 6,3 cm de largeur à leur base) se courbant avec l'âge, cylindriques, avec un canal marqué (de 0,4 à 0,8 cm de profondeur) et six à vingt sillons longitudinaux, légèrement rugueuses, se terminant en une épine brun-clair (de 0,4 cm), de couleur vert terne à vert-clair avec de discrètes striures plus claires. Acaulescentes, elles poussent directement depuis le rhyzome (de 5 cm de diamètre) par groupe de une à trois feuilles. Les inflorescences (de 20 à 43 cm de longueur) émergent entre les feuilles avec des groupes de une à trois fleurs blanches teintées de pourpre.
+Elle a été identifiée comme espèce à part entière en 1903 par l'horticulteur français Alexandre Godefroy-Lebeuf, confirmé la même année par le botaniste Joseph Gérôme.
+Sansevieria stuckyi peut être confondue avec Sansevieria fischeri – qui présente de fortes similarités morphologiques – mais diffère par le caractère strictement solitaires des feuilles et l'émergence latérale des infloresences qui sont par ailleurs plus volumineuses sur leur long pédoncule.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Afrique de l'Est, présente au Kenya, au Mozambique et au Zimbabwe[5],[2] où elle pousse dans les terres rouges et sableuses des plaines entre 50 et 1 000 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Afrique de l'Est, présente au Kenya, au Mozambique et au Zimbabwe, où elle pousse dans les terres rouges et sableuses des plaines entre 50 et 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente des synonymes[6],[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente des synonymes, :
 Sansevieria andradae (Godefroy-Lebeuf, 1903)
 Sansevieria andradae (Godefroy-Lebeuf, 1903 ; ex Gérôme, 1903)
 Acyntha stuckyi (Godefroy-Lebeuf, 1903 ; Chiovenda, 1932)
